--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>5.452</v>
+        <v>5.618</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.776</v>
+        <v>-21.573</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.918000000000001</v>
+        <v>-7.768000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.124000000000001</v>
+        <v>-7.260000000000001</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.42</v>
+        <v>-21.559</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.278</v>
+        <v>-21.373</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.814</v>
+        <v>5.494</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.854</v>
+        <v>-20.664</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.673</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,13 +839,13 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.056</v>
+        <v>6.055</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-8.161999999999999</v>
+        <v>-7.839</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.122</v>
+        <v>-21.275</v>
       </c>
       <c r="B25" t="n">
-        <v>6.18</v>
+        <v>7.053999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.146000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.666</v>
+        <v>-21.481</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.092000000000001</v>
+        <v>6.202000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.172</v>
+        <v>-21.202</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>4.936</v>
+        <v>5.656999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.766</v>
+        <v>6.56</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.225999999999999</v>
+        <v>7.717000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.188</v>
+        <v>-20.404</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.394</v>
+        <v>-7.944</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.208</v>
+        <v>8.33</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.869999999999999</v>
+        <v>5.274</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.084</v>
+        <v>-8.436999999999998</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.924</v>
+        <v>6.718999999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.172</v>
+        <v>6.407000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-22.032</v>
+        <v>-22.04</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-7.758</v>
+        <v>-7.704000000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.692</v>
+        <v>4.790999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,13 +1383,13 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.923999999999999</v>
+        <v>6.448</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.718000000000001</v>
+        <v>-7.867</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.302</v>
+        <v>-21.303</v>
       </c>
       <c r="B57" t="n">
-        <v>7.489999999999999</v>
+        <v>6.431999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.517999999999999</v>
+        <v>-8.232000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.086</v>
+        <v>-8.096</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.196</v>
+        <v>-22.43</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>4.89</v>
+        <v>5.787000000000001</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.913999999999999</v>
+        <v>-7.972999999999999</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-8.052000000000001</v>
+        <v>-7.529000000000001</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.706</v>
+        <v>-7.743</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.322</v>
+        <v>-21.418</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.42</v>
+        <v>-21.531</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.99</v>
+        <v>-7.498000000000002</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.944</v>
+        <v>-7.715000000000001</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.674000000000001</v>
+        <v>6.679</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>8.443999999999999</v>
+        <v>8.995000000000001</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.13</v>
+        <v>-21.136</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.754</v>
+        <v>-21.351</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.084</v>
+        <v>-8.273</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1944,13 +1944,13 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>5.58</v>
+        <v>5.898999999999999</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.496</v>
+        <v>-6.093999999999999</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.931999999999999</v>
+        <v>6.045</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.533</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.414000000000001</v>
+        <v>5.898999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.9</v>
+        <v>-21.186</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.809999999999999</v>
+        <v>-8.134</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.494</v>
+        <v>-21.419</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.915999999999999</v>
+        <v>-7.989</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.084</v>
+        <v>-7.933</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
